--- a/Observatie_Eindhoven_statistieken_Middellijn.xlsx
+++ b/Observatie_Eindhoven_statistieken_Middellijn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://casclimate-my.sharepoint.com/personal/info_casclimate_onmicrosoft_com/Documents/1. Projecten/CAS230 Unseen Ultrastory/Data/voor story/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Documents\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{17C03A42-8BED-4EE8-92E8-B07C3A272AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7365DF35-4248-4BB9-8829-2A7DB05D4F0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9459101E-FA42-4E21-8D09-FDA85A02133B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{01BBEEA4-5FE9-45CD-8C18-5E10952A7D2B}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Kans(%)</t>
   </si>
   <si>
-    <t>Zonder klimaatverandering</t>
+    <t>Zonder</t>
   </si>
   <si>
-    <t>Huidig klimaat</t>
+    <t>Klimaatverandering</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
